--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3382692.589623008</v>
+        <v>3380811.254546545</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3308852.713616688</v>
+        <v>3308852.71361669</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8390488.321454771</v>
+        <v>8390488.321454773</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="G2" t="n">
-        <v>173.321767168465</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>84.22773893331222</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>38.67343395001303</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>55.90411254528286</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.203367682519206</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>80.02238511714937</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>390.6602340270275</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>390.6602340270275</v>
+        <v>14.76569488151729</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39.56470658359292</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.1341136071584</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3026894971471</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.4603144255763</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>199.0065341915356</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9224779269495</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.31486364771474</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.2403030519851</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>19.99013723575072</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3058894199224</v>
       </c>
       <c r="V7" t="n">
-        <v>139.0492055570448</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>290.5286403308938</v>
+        <v>174.4897925651622</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.9566202902064</v>
+        <v>82.92375604299535</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>370.8897187465504</v>
       </c>
       <c r="F11" t="n">
-        <v>395.8353944160001</v>
+        <v>395.835394416</v>
       </c>
       <c r="G11" t="n">
         <v>400.9238654639801</v>
       </c>
       <c r="H11" t="n">
-        <v>294.2465977856064</v>
+        <v>294.2465977856063</v>
       </c>
       <c r="I11" t="n">
         <v>70.73848372702938</v>
@@ -1427,13 +1427,13 @@
         <v>240.0379439240896</v>
       </c>
       <c r="V11" t="n">
-        <v>316.7116071444236</v>
+        <v>316.7116071444235</v>
       </c>
       <c r="W11" t="n">
-        <v>338.2003173917017</v>
+        <v>338.2003173917016</v>
       </c>
       <c r="X11" t="n">
-        <v>358.6904493527577</v>
+        <v>358.6904493527576</v>
       </c>
       <c r="Y11" t="n">
         <v>375.1972873303422</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>210.5069097326779</v>
       </c>
       <c r="U13" t="n">
-        <v>253.815615717247</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V13" t="n">
-        <v>241.0969919981166</v>
+        <v>82.32850692914764</v>
       </c>
       <c r="W13" t="n">
-        <v>275.4823470108797</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y13" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>370.8897187465504</v>
       </c>
       <c r="F14" t="n">
-        <v>395.8353944160001</v>
+        <v>395.835394416</v>
       </c>
       <c r="G14" t="n">
         <v>400.9238654639801</v>
       </c>
       <c r="H14" t="n">
-        <v>294.2465977856064</v>
+        <v>294.2465977856063</v>
       </c>
       <c r="I14" t="n">
         <v>70.73848372702938</v>
@@ -1661,16 +1661,16 @@
         <v>197.4421370127905</v>
       </c>
       <c r="U14" t="n">
-        <v>240.0379439240896</v>
+        <v>240.03794392409</v>
       </c>
       <c r="V14" t="n">
-        <v>316.7116071444236</v>
+        <v>316.7116071444235</v>
       </c>
       <c r="W14" t="n">
-        <v>338.2003173917017</v>
+        <v>338.2003173917016</v>
       </c>
       <c r="X14" t="n">
-        <v>358.6904493527577</v>
+        <v>358.6904493527576</v>
       </c>
       <c r="Y14" t="n">
         <v>375.1972873303422</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C16" t="n">
         <v>156.2061697729165</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.08022988474553</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S16" t="n">
         <v>186.8801586578919</v>
       </c>
       <c r="T16" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V16" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W16" t="n">
-        <v>275.4823470108797</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>207.5440020263834</v>
+        <v>71.67232777430006</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>370.8897187465504</v>
       </c>
       <c r="F17" t="n">
-        <v>395.8353944160001</v>
+        <v>395.835394416</v>
       </c>
       <c r="G17" t="n">
         <v>400.9238654639801</v>
       </c>
       <c r="H17" t="n">
-        <v>294.2465977856064</v>
+        <v>294.2465977856063</v>
       </c>
       <c r="I17" t="n">
-        <v>70.73848372702938</v>
+        <v>70.73848372702935</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>121.9097134794875</v>
+        <v>121.9097134794876</v>
       </c>
       <c r="T17" t="n">
         <v>197.4421370127905</v>
@@ -1901,13 +1901,13 @@
         <v>240.0379439240896</v>
       </c>
       <c r="V17" t="n">
-        <v>316.7116071444236</v>
+        <v>316.7116071444235</v>
       </c>
       <c r="W17" t="n">
-        <v>338.2003173917017</v>
+        <v>338.2003173917016</v>
       </c>
       <c r="X17" t="n">
-        <v>358.6904493527577</v>
+        <v>358.6904493527576</v>
       </c>
       <c r="Y17" t="n">
         <v>375.1972873303422</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>180.0715395464684</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981166</v>
+        <v>173.9397839911363</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
         <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>358.6904493527576</v>
       </c>
       <c r="Y20" t="n">
-        <v>375.1972873303422</v>
+        <v>375.1972873303428</v>
       </c>
     </row>
     <row r="21">
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>137.574821692501</v>
+        <v>63.50973686958204</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>134.2321698387143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.5064434871866</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
         <v>210.5069097326779</v>
@@ -2539,10 +2539,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>17.37158781453891</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151923</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>97.57844865856761</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>152.6276470398216</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555818</v>
+        <v>64.81847467555693</v>
       </c>
       <c r="T35" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W35" t="n">
         <v>281.1090785877724</v>
@@ -3332,7 +3332,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3518,10 +3518,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310006</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555822</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201602</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C41" t="n">
-        <v>297.1410016413656</v>
+        <v>297.1410016413669</v>
       </c>
       <c r="D41" t="n">
         <v>286.5511514910423</v>
       </c>
       <c r="E41" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F41" t="n">
         <v>338.7441556120708</v>
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555738</v>
       </c>
       <c r="T41" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U41" t="n">
         <v>182.9467051201603</v>
@@ -3800,7 +3800,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W41" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X41" t="n">
         <v>301.5992105488284</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3983,7 +3983,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E44" t="n">
-        <v>313.7984799426199</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F44" t="n">
         <v>338.7441556120708</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555822</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201589</v>
       </c>
       <c r="V44" t="n">
         <v>259.6203683404943</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.1762753293418</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2303018926191</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2303018926191</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="E2" t="n">
-        <v>683.2303018926191</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="F2" t="n">
-        <v>404.2843284558963</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4331,19 +4331,19 @@
         <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293418</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293418</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293418</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293418</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293418</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="X2" t="n">
-        <v>962.1762753293418</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.1762753293418</v>
+        <v>586.9299687188374</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>417.9442617454077</v>
+        <v>520.7989188188672</v>
       </c>
       <c r="C3" t="n">
-        <v>417.9442617454077</v>
+        <v>346.3458895377402</v>
       </c>
       <c r="D3" t="n">
-        <v>269.0098520841565</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="E3" t="n">
-        <v>109.772397078701</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
@@ -4413,13 +4413,13 @@
         <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>439.1939517187799</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N3" t="n">
-        <v>712.5889002841118</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
         <v>828.8278839945615</v>
@@ -4443,16 +4443,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>1048.157254258631</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>793.9198975304296</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X3" t="n">
-        <v>793.9198975304296</v>
+        <v>896.7745546038891</v>
       </c>
       <c r="Y3" t="n">
-        <v>586.1595987654757</v>
+        <v>689.0142558389352</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
         <v>22.09252109618844</v>
@@ -4522,16 +4522,16 @@
         <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>860.4297628005944</v>
+        <v>492.2095534303048</v>
       </c>
       <c r="C5" t="n">
-        <v>860.4297628005944</v>
+        <v>411.3788613927802</v>
       </c>
       <c r="D5" t="n">
-        <v>860.4297628005944</v>
+        <v>53.11316278602963</v>
       </c>
       <c r="E5" t="n">
-        <v>860.4297628005944</v>
+        <v>53.11316278602963</v>
       </c>
       <c r="F5" t="n">
-        <v>465.8234658035969</v>
+        <v>46.16766203682616</v>
       </c>
       <c r="G5" t="n">
-        <v>71.21716880659949</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="H5" t="n">
-        <v>71.21716880659949</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="I5" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="J5" t="n">
-        <v>64.54803626386047</v>
+        <v>64.54803626386081</v>
       </c>
       <c r="K5" t="n">
-        <v>235.1937407117767</v>
+        <v>235.1937407117774</v>
       </c>
       <c r="L5" t="n">
-        <v>499.1714541470229</v>
+        <v>499.1714541470237</v>
       </c>
       <c r="M5" t="n">
-        <v>809.5040688767583</v>
+        <v>809.5040688767593</v>
       </c>
       <c r="N5" t="n">
-        <v>1110.226192209768</v>
+        <v>1110.226192209769</v>
       </c>
       <c r="O5" t="n">
-        <v>1349.00192796703</v>
+        <v>1349.001927967031</v>
       </c>
       <c r="P5" t="n">
-        <v>1515.117111256431</v>
+        <v>1515.117111256432</v>
       </c>
       <c r="Q5" t="n">
-        <v>1562.64093610811</v>
+        <v>1562.640936108111</v>
       </c>
       <c r="R5" t="n">
-        <v>1445.333750646334</v>
+        <v>1562.640936108111</v>
       </c>
       <c r="S5" t="n">
-        <v>1445.333750646334</v>
+        <v>1562.640936108111</v>
       </c>
       <c r="T5" t="n">
-        <v>1445.333750646334</v>
+        <v>1562.640936108111</v>
       </c>
       <c r="U5" t="n">
-        <v>1191.492650144165</v>
+        <v>1562.640936108111</v>
       </c>
       <c r="V5" t="n">
-        <v>860.4297628005944</v>
+        <v>1231.578048764541</v>
       </c>
       <c r="W5" t="n">
-        <v>860.4297628005944</v>
+        <v>878.8093934944266</v>
       </c>
       <c r="X5" t="n">
-        <v>860.4297628005944</v>
+        <v>878.8093934944266</v>
       </c>
       <c r="Y5" t="n">
-        <v>860.4297628005944</v>
+        <v>878.8093934944266</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>513.877712669996</v>
+        <v>475.5092771759935</v>
       </c>
       <c r="C6" t="n">
-        <v>339.424683388869</v>
+        <v>301.0562478948665</v>
       </c>
       <c r="D6" t="n">
-        <v>190.4902737276177</v>
+        <v>301.0562478948665</v>
       </c>
       <c r="E6" t="n">
-        <v>31.2528187221622</v>
+        <v>141.818792889411</v>
       </c>
       <c r="F6" t="n">
-        <v>31.2528187221622</v>
+        <v>141.818792889411</v>
       </c>
       <c r="G6" t="n">
-        <v>31.2528187221622</v>
+        <v>141.818792889411</v>
       </c>
       <c r="H6" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="I6" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="J6" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="K6" t="n">
-        <v>202.5459985375666</v>
+        <v>202.5459985375668</v>
       </c>
       <c r="L6" t="n">
-        <v>494.2752139775363</v>
+        <v>494.2752139775367</v>
       </c>
       <c r="M6" t="n">
-        <v>881.0288456642935</v>
+        <v>881.0288456642943</v>
       </c>
       <c r="N6" t="n">
-        <v>1009.240226120505</v>
+        <v>903.5333586894417</v>
       </c>
       <c r="O6" t="n">
-        <v>1325.676220669707</v>
+        <v>1219.969353238644</v>
       </c>
       <c r="P6" t="n">
-        <v>1562.64093610811</v>
+        <v>1456.934068677047</v>
       </c>
       <c r="Q6" t="n">
-        <v>1562.64093610811</v>
+        <v>1562.640936108111</v>
       </c>
       <c r="R6" t="n">
-        <v>1562.64093610811</v>
+        <v>1562.640936108111</v>
       </c>
       <c r="S6" t="n">
-        <v>1562.64093610811</v>
+        <v>1562.640936108111</v>
       </c>
       <c r="T6" t="n">
-        <v>1361.624234904539</v>
+        <v>1361.62423490454</v>
       </c>
       <c r="U6" t="n">
-        <v>1361.624234904539</v>
+        <v>1133.419711746005</v>
       </c>
       <c r="V6" t="n">
-        <v>1126.472126672796</v>
+        <v>898.2676035142626</v>
       </c>
       <c r="W6" t="n">
-        <v>872.2347699445943</v>
+        <v>851.4849129610154</v>
       </c>
       <c r="X6" t="n">
-        <v>872.2347699445943</v>
+        <v>851.4849129610154</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.0930496900639</v>
+        <v>643.7246141960616</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.1890016500691</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="C7" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="D7" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="E7" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="F7" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="G7" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="H7" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="I7" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="J7" t="n">
-        <v>31.2528187221622</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="K7" t="n">
-        <v>36.91420605639582</v>
+        <v>36.91420605639593</v>
       </c>
       <c r="L7" t="n">
-        <v>99.68526729973792</v>
+        <v>99.68526729973811</v>
       </c>
       <c r="M7" t="n">
-        <v>176.25767332313</v>
+        <v>176.2576733231303</v>
       </c>
       <c r="N7" t="n">
-        <v>256.4439751008817</v>
+        <v>256.4439751008821</v>
       </c>
       <c r="O7" t="n">
-        <v>314.492707807174</v>
+        <v>314.4927078071745</v>
       </c>
       <c r="P7" t="n">
-        <v>340.642744636983</v>
+        <v>340.6427446369836</v>
       </c>
       <c r="Q7" t="n">
-        <v>340.642744636983</v>
+        <v>340.6427446369836</v>
       </c>
       <c r="R7" t="n">
-        <v>340.642744636983</v>
+        <v>320.450686823094</v>
       </c>
       <c r="S7" t="n">
-        <v>340.642744636983</v>
+        <v>320.450686823094</v>
       </c>
       <c r="T7" t="n">
-        <v>340.642744636983</v>
+        <v>320.450686823094</v>
       </c>
       <c r="U7" t="n">
-        <v>340.642744636983</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="V7" t="n">
-        <v>200.1890016500691</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="W7" t="n">
-        <v>200.1890016500691</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="X7" t="n">
-        <v>200.1890016500691</v>
+        <v>31.25281872216223</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.1890016500691</v>
+        <v>31.25281872216223</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W10" t="n">
-        <v>563.4023475952011</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1641.918373194639</v>
       </c>
       <c r="E11" t="n">
-        <v>1267.282293652669</v>
+        <v>1267.28229365267</v>
       </c>
       <c r="F11" t="n">
-        <v>867.4485619193351</v>
+        <v>867.448561919336</v>
       </c>
       <c r="G11" t="n">
-        <v>462.4749604405679</v>
+        <v>462.4749604405683</v>
       </c>
       <c r="H11" t="n">
         <v>165.2561747985413</v>
@@ -5048,7 +5048,7 @@
         <v>1587.474417267776</v>
       </c>
       <c r="M11" t="n">
-        <v>2217.468175143555</v>
+        <v>2384.750770987666</v>
       </c>
       <c r="N11" t="n">
         <v>3013.013296247586</v>
@@ -5124,10 +5124,10 @@
         <v>671.0146319297301</v>
       </c>
       <c r="L12" t="n">
-        <v>1203.304850588092</v>
+        <v>917.7797598361941</v>
       </c>
       <c r="M12" t="n">
-        <v>1510.624983868054</v>
+        <v>1225.099893116156</v>
       </c>
       <c r="N12" t="n">
         <v>1840.487611532087</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.80316093285501</v>
+        <v>333.150045610695</v>
       </c>
       <c r="C13" t="n">
-        <v>93.80316093285501</v>
+        <v>333.150045610695</v>
       </c>
       <c r="D13" t="n">
-        <v>93.80316093285501</v>
+        <v>194.1855792546334</v>
       </c>
       <c r="E13" t="n">
-        <v>93.80316093285501</v>
+        <v>194.1855792546334</v>
       </c>
       <c r="F13" t="n">
-        <v>93.80316093285501</v>
+        <v>194.1855792546334</v>
       </c>
       <c r="G13" t="n">
-        <v>93.80316093285501</v>
+        <v>194.1855792546334</v>
       </c>
       <c r="H13" t="n">
-        <v>93.80316093285501</v>
+        <v>194.1855792546334</v>
       </c>
       <c r="I13" t="n">
         <v>93.80316093285501</v>
@@ -5200,19 +5200,19 @@
         <v>117.1160982092191</v>
       </c>
       <c r="K13" t="n">
-        <v>278.2317472662849</v>
+        <v>278.2317472662848</v>
       </c>
       <c r="L13" t="n">
         <v>536.8740370898684</v>
       </c>
       <c r="M13" t="n">
-        <v>819.3710246695057</v>
+        <v>819.3710246695055</v>
       </c>
       <c r="N13" t="n">
-        <v>1100.845378509508</v>
+        <v>1100.845378509507</v>
       </c>
       <c r="O13" t="n">
-        <v>1345.650601327359</v>
+        <v>1345.650601327358</v>
       </c>
       <c r="P13" t="n">
         <v>1533.180610745495</v>
@@ -5227,22 +5227,22 @@
         <v>1294.253531120032</v>
       </c>
       <c r="T13" t="n">
-        <v>1081.620288965812</v>
+        <v>1081.620288965811</v>
       </c>
       <c r="U13" t="n">
-        <v>825.2408791504103</v>
+        <v>803.6438232356437</v>
       </c>
       <c r="V13" t="n">
-        <v>581.7085640007974</v>
+        <v>720.4837152264039</v>
       </c>
       <c r="W13" t="n">
-        <v>303.443567020111</v>
+        <v>720.4837152264039</v>
       </c>
       <c r="X13" t="n">
-        <v>303.443567020111</v>
+        <v>503.6463373846606</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.80316093285501</v>
+        <v>503.6463373846606</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2346.842242629254</v>
+        <v>2346.842242629253</v>
       </c>
       <c r="C14" t="n">
         <v>1989.031898745116</v>
       </c>
       <c r="D14" t="n">
-        <v>1641.91837319464</v>
+        <v>1641.918373194639</v>
       </c>
       <c r="E14" t="n">
-        <v>1267.28229365267</v>
+        <v>1267.282293652669</v>
       </c>
       <c r="F14" t="n">
-        <v>867.448561919336</v>
+        <v>867.4485619193356</v>
       </c>
       <c r="G14" t="n">
         <v>462.4749604405679</v>
@@ -5303,22 +5303,22 @@
         <v>4690.15804664275</v>
       </c>
       <c r="S14" t="n">
-        <v>4567.016921915996</v>
+        <v>4567.016921915995</v>
       </c>
       <c r="T14" t="n">
-        <v>4367.580419882875</v>
+        <v>4367.580419882874</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.117850262582</v>
+        <v>4125.117850262581</v>
       </c>
       <c r="V14" t="n">
-        <v>3805.207135975285</v>
+        <v>3805.207135975284</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.590653761445</v>
+        <v>3463.590653761444</v>
       </c>
       <c r="X14" t="n">
-        <v>3101.277068556639</v>
+        <v>3101.277068556638</v>
       </c>
       <c r="Y14" t="n">
         <v>2722.289909637101</v>
@@ -5355,25 +5355,25 @@
         <v>93.80316093285501</v>
       </c>
       <c r="J15" t="n">
-        <v>260.1243630852174</v>
+        <v>135.2942380982126</v>
       </c>
       <c r="K15" t="n">
-        <v>671.0146319297301</v>
+        <v>284.3639223002725</v>
       </c>
       <c r="L15" t="n">
-        <v>917.7797598361941</v>
+        <v>898.260992057161</v>
       </c>
       <c r="M15" t="n">
-        <v>1225.099893116156</v>
+        <v>1666.629138449623</v>
       </c>
       <c r="N15" t="n">
-        <v>1554.962520780188</v>
+        <v>1996.491766113655</v>
       </c>
       <c r="O15" t="n">
-        <v>1834.502585998885</v>
+        <v>2328.004191609275</v>
       </c>
       <c r="P15" t="n">
-        <v>2325.050157532994</v>
+        <v>2533.026672391484</v>
       </c>
       <c r="Q15" t="n">
         <v>2620.159574848708</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>408.6103194283931</v>
+        <v>251.5871708044878</v>
       </c>
       <c r="C16" t="n">
-        <v>250.8263095567603</v>
+        <v>93.80316093285501</v>
       </c>
       <c r="D16" t="n">
-        <v>250.8263095567603</v>
+        <v>93.80316093285501</v>
       </c>
       <c r="E16" t="n">
-        <v>250.8263095567603</v>
+        <v>93.80316093285501</v>
       </c>
       <c r="F16" t="n">
-        <v>250.8263095567603</v>
+        <v>93.80316093285501</v>
       </c>
       <c r="G16" t="n">
         <v>93.80316093285501</v>
@@ -5437,13 +5437,13 @@
         <v>117.1160982092191</v>
       </c>
       <c r="K16" t="n">
-        <v>278.2317472662847</v>
+        <v>278.2317472662848</v>
       </c>
       <c r="L16" t="n">
-        <v>536.8740370898681</v>
+        <v>536.8740370898684</v>
       </c>
       <c r="M16" t="n">
-        <v>819.3710246695052</v>
+        <v>819.3710246695055</v>
       </c>
       <c r="N16" t="n">
         <v>1100.845378509507</v>
@@ -5455,31 +5455,31 @@
         <v>1533.180610745495</v>
       </c>
       <c r="Q16" t="n">
-        <v>1582.944298530105</v>
+        <v>1582.944298530106</v>
       </c>
       <c r="R16" t="n">
-        <v>1541.449116828342</v>
+        <v>1483.021368148205</v>
       </c>
       <c r="S16" t="n">
-        <v>1352.681279800169</v>
+        <v>1294.253531120031</v>
       </c>
       <c r="T16" t="n">
-        <v>1140.048037645948</v>
+        <v>1294.253531120031</v>
       </c>
       <c r="U16" t="n">
-        <v>1140.048037645948</v>
+        <v>1016.277065389864</v>
       </c>
       <c r="V16" t="n">
-        <v>896.5157224963356</v>
+        <v>772.7447502402511</v>
       </c>
       <c r="W16" t="n">
-        <v>618.250725515649</v>
+        <v>494.4797532595646</v>
       </c>
       <c r="X16" t="n">
-        <v>618.250725515649</v>
+        <v>494.4797532595646</v>
       </c>
       <c r="Y16" t="n">
-        <v>408.6103194283931</v>
+        <v>422.0834625784534</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2346.842242629252</v>
+        <v>2346.842242629253</v>
       </c>
       <c r="C17" t="n">
-        <v>1989.031898745115</v>
+        <v>1989.031898745116</v>
       </c>
       <c r="D17" t="n">
-        <v>1641.918373194638</v>
+        <v>1641.918373194639</v>
       </c>
       <c r="E17" t="n">
-        <v>1267.282293652668</v>
+        <v>1267.282293652669</v>
       </c>
       <c r="F17" t="n">
-        <v>867.4485619193347</v>
+        <v>867.4485619193356</v>
       </c>
       <c r="G17" t="n">
-        <v>462.4749604405674</v>
+        <v>462.4749604405678</v>
       </c>
       <c r="H17" t="n">
-        <v>165.2561747985413</v>
+        <v>165.2561747985412</v>
       </c>
       <c r="I17" t="n">
         <v>93.80316093285501</v>
@@ -5522,16 +5522,16 @@
         <v>1587.474417267776</v>
       </c>
       <c r="M17" t="n">
-        <v>2217.468175143555</v>
+        <v>2384.750770987666</v>
       </c>
       <c r="N17" t="n">
-        <v>3013.013296247586</v>
+        <v>3180.295892091697</v>
       </c>
       <c r="O17" t="n">
-        <v>3719.036357271782</v>
+        <v>3886.318953115893</v>
       </c>
       <c r="P17" t="n">
-        <v>4283.936322527585</v>
+        <v>4451.218918371696</v>
       </c>
       <c r="Q17" t="n">
         <v>4630.930910836288</v>
@@ -5540,7 +5540,7 @@
         <v>4690.15804664275</v>
       </c>
       <c r="S17" t="n">
-        <v>4567.016921915996</v>
+        <v>4567.016921915995</v>
       </c>
       <c r="T17" t="n">
         <v>4367.580419882874</v>
@@ -5558,7 +5558,7 @@
         <v>3101.277068556638</v>
       </c>
       <c r="Y17" t="n">
-        <v>2722.2899096371</v>
+        <v>2722.289909637101</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>260.1243630852174</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1940472872773</v>
+        <v>671.0146319297301</v>
       </c>
       <c r="L18" t="n">
-        <v>655.9591751937413</v>
+        <v>917.7797598361941</v>
       </c>
       <c r="M18" t="n">
-        <v>963.2793084737029</v>
+        <v>1225.099893116156</v>
       </c>
       <c r="N18" t="n">
-        <v>1293.141936137736</v>
+        <v>1840.487611532087</v>
       </c>
       <c r="O18" t="n">
-        <v>1804.749535797246</v>
+        <v>2120.027676750784</v>
       </c>
       <c r="P18" t="n">
         <v>2325.050157532994</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.80316093285501</v>
+        <v>232.7676272889166</v>
       </c>
       <c r="C19" t="n">
-        <v>93.80316093285501</v>
+        <v>232.7676272889166</v>
       </c>
       <c r="D19" t="n">
         <v>93.80316093285501</v>
@@ -5671,10 +5671,10 @@
         <v>93.80316093285501</v>
       </c>
       <c r="J19" t="n">
-        <v>117.1160982092191</v>
+        <v>117.116098209219</v>
       </c>
       <c r="K19" t="n">
-        <v>278.2317472662847</v>
+        <v>278.2317472662846</v>
       </c>
       <c r="L19" t="n">
         <v>536.8740370898681</v>
@@ -5701,22 +5701,22 @@
         <v>1394.176461501932</v>
       </c>
       <c r="T19" t="n">
-        <v>1212.2860175156</v>
+        <v>1181.543219347712</v>
       </c>
       <c r="U19" t="n">
-        <v>934.3095517854325</v>
+        <v>903.5667536175446</v>
       </c>
       <c r="V19" t="n">
-        <v>690.7772366358198</v>
+        <v>727.8700021113463</v>
       </c>
       <c r="W19" t="n">
-        <v>690.7772366358198</v>
+        <v>449.6050051306598</v>
       </c>
       <c r="X19" t="n">
-        <v>473.9398587940765</v>
+        <v>232.7676272889166</v>
       </c>
       <c r="Y19" t="n">
-        <v>264.2994527068206</v>
+        <v>232.7676272889166</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2346.842242629254</v>
+        <v>2346.842242629253</v>
       </c>
       <c r="C20" t="n">
         <v>1989.031898745116</v>
       </c>
       <c r="D20" t="n">
-        <v>1641.91837319464</v>
+        <v>1641.918373194639</v>
       </c>
       <c r="E20" t="n">
-        <v>1267.28229365267</v>
+        <v>1267.282293652669</v>
       </c>
       <c r="F20" t="n">
-        <v>867.4485619193365</v>
+        <v>867.4485619193356</v>
       </c>
       <c r="G20" t="n">
-        <v>462.4749604405688</v>
+        <v>462.4749604405678</v>
       </c>
       <c r="H20" t="n">
         <v>165.2561747985412</v>
@@ -5750,28 +5750,28 @@
         <v>93.80316093285501</v>
       </c>
       <c r="J20" t="n">
-        <v>362.4674026549479</v>
+        <v>195.1848068108366</v>
       </c>
       <c r="K20" t="n">
-        <v>885.8702612239776</v>
+        <v>718.5876653798663</v>
       </c>
       <c r="L20" t="n">
-        <v>1587.474417267776</v>
+        <v>1420.191821423664</v>
       </c>
       <c r="M20" t="n">
-        <v>2276.695310950018</v>
+        <v>2217.468175143555</v>
       </c>
       <c r="N20" t="n">
-        <v>3072.240432054049</v>
+        <v>3013.013296247586</v>
       </c>
       <c r="O20" t="n">
-        <v>3778.263493078244</v>
+        <v>3719.036357271782</v>
       </c>
       <c r="P20" t="n">
-        <v>4343.163458334047</v>
+        <v>4283.936322527585</v>
       </c>
       <c r="Q20" t="n">
-        <v>4690.15804664275</v>
+        <v>4630.930910836288</v>
       </c>
       <c r="R20" t="n">
         <v>4690.15804664275</v>
@@ -5783,10 +5783,10 @@
         <v>4367.580419882874</v>
       </c>
       <c r="U20" t="n">
-        <v>4125.117850262582</v>
+        <v>4125.117850262581</v>
       </c>
       <c r="V20" t="n">
-        <v>3805.207135975285</v>
+        <v>3805.207135975284</v>
       </c>
       <c r="W20" t="n">
         <v>3463.590653761445</v>
@@ -5795,7 +5795,7 @@
         <v>3101.277068556639</v>
       </c>
       <c r="Y20" t="n">
-        <v>2722.289909637102</v>
+        <v>2722.289909637101</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.80316093285501</v>
       </c>
       <c r="J21" t="n">
-        <v>260.1243630852174</v>
+        <v>135.2942380982126</v>
       </c>
       <c r="K21" t="n">
-        <v>671.0146319297301</v>
+        <v>546.1845069427253</v>
       </c>
       <c r="L21" t="n">
-        <v>1192.674838490792</v>
+        <v>792.9496348491894</v>
       </c>
       <c r="M21" t="n">
-        <v>1499.994971770754</v>
+        <v>1561.317781241651</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.857599434787</v>
+        <v>1891.180408905684</v>
       </c>
       <c r="O21" t="n">
-        <v>2109.397664653484</v>
+        <v>2170.720474124381</v>
       </c>
       <c r="P21" t="n">
-        <v>2314.420145435693</v>
+        <v>2533.026672391484</v>
       </c>
       <c r="Q21" t="n">
-        <v>2609.529562751407</v>
+        <v>2620.159574848708</v>
       </c>
       <c r="R21" t="n">
         <v>2620.159574848708</v>
@@ -5884,55 +5884,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>389.7907759128219</v>
+        <v>315.7384201677017</v>
       </c>
       <c r="C22" t="n">
-        <v>389.7907759128219</v>
+        <v>157.954410296069</v>
       </c>
       <c r="D22" t="n">
-        <v>250.8263095567603</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="E22" t="n">
-        <v>250.8263095567603</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="F22" t="n">
-        <v>250.8263095567603</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="G22" t="n">
-        <v>93.80316093285501</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="H22" t="n">
-        <v>93.80316093285501</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="I22" t="n">
-        <v>93.80316093285501</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="J22" t="n">
-        <v>117.1160982092193</v>
+        <v>117.1160982092192</v>
       </c>
       <c r="K22" t="n">
-        <v>278.231747266285</v>
+        <v>278.2317472662848</v>
       </c>
       <c r="L22" t="n">
-        <v>536.8740370898686</v>
+        <v>536.8740370898684</v>
       </c>
       <c r="M22" t="n">
-        <v>819.3710246695056</v>
+        <v>819.3710246695055</v>
       </c>
       <c r="N22" t="n">
-        <v>1100.845378509508</v>
+        <v>1100.845378509507</v>
       </c>
       <c r="O22" t="n">
-        <v>1345.650601327359</v>
+        <v>1345.650601327358</v>
       </c>
       <c r="P22" t="n">
-        <v>1533.180610745496</v>
+        <v>1533.180610745495</v>
       </c>
       <c r="Q22" t="n">
         <v>1582.944298530106</v>
       </c>
       <c r="R22" t="n">
-        <v>1483.021368148206</v>
+        <v>1483.021368148205</v>
       </c>
       <c r="S22" t="n">
         <v>1294.253531120032</v>
@@ -5941,19 +5941,19 @@
         <v>1081.620288965812</v>
       </c>
       <c r="U22" t="n">
-        <v>803.6438232356442</v>
+        <v>803.6438232356443</v>
       </c>
       <c r="V22" t="n">
-        <v>668.0557728935083</v>
+        <v>803.6438232356443</v>
       </c>
       <c r="W22" t="n">
-        <v>389.7907759128219</v>
+        <v>525.3788262549577</v>
       </c>
       <c r="X22" t="n">
-        <v>389.7907759128219</v>
+        <v>525.3788262549577</v>
       </c>
       <c r="Y22" t="n">
-        <v>389.7907759128219</v>
+        <v>315.7384201677017</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,19 +6066,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
         <v>2123.441607278215</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>120.53002873665</v>
@@ -6151,7 +6151,7 @@
         <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
         <v>822.7849551969363</v>
@@ -6163,31 +6163,31 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1496.957781090682</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1496.957781090682</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1284.324538936462</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>1006.348073206294</v>
+        <v>807.057753763075</v>
       </c>
       <c r="V25" t="n">
-        <v>762.815758056681</v>
+        <v>563.5254386134623</v>
       </c>
       <c r="W25" t="n">
-        <v>484.5507610759946</v>
+        <v>285.2604416327756</v>
       </c>
       <c r="X25" t="n">
-        <v>267.7133832342514</v>
+        <v>285.2604416327756</v>
       </c>
       <c r="Y25" t="n">
         <v>267.7133832342514</v>
@@ -6218,7 +6218,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028597</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>776.3630235686834</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.20087639112</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632135</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508778</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684847</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903949</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557903</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557903</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557903</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="32">
@@ -6704,7 +6704,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6777,19 +6777,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M33" t="n">
-        <v>857.5427825698952</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E35" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872888</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G35" t="n">
-        <v>329.4856801922883</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I35" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>177.4083093538499</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>379.9072094774265</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L35" t="n">
-        <v>1081.511365521224</v>
+        <v>1502.511484486069</v>
       </c>
       <c r="M35" t="n">
-        <v>1878.787719241115</v>
+        <v>2299.787838205959</v>
       </c>
       <c r="N35" t="n">
-        <v>2674.332840345146</v>
+        <v>3095.33295930999</v>
       </c>
       <c r="O35" t="n">
-        <v>3046.555983987837</v>
+        <v>3424.363840884068</v>
       </c>
       <c r="P35" t="n">
-        <v>3611.45594924364</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q35" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R35" t="n">
         <v>3807.4858326055</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862514</v>
       </c>
       <c r="T35" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813159</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K36" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L36" t="n">
-        <v>900.1263155554491</v>
+        <v>775.2961905684443</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.446448835411</v>
+        <v>1177.693398633771</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.309076499444</v>
+        <v>1507.556026297804</v>
       </c>
       <c r="O36" t="n">
-        <v>1816.849141718141</v>
+        <v>1787.096091516501</v>
       </c>
       <c r="P36" t="n">
         <v>2307.396713252248</v>
@@ -7069,64 +7069,64 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026574</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424965</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901211</v>
       </c>
       <c r="I37" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443642</v>
+        <v>155.9829803443643</v>
       </c>
       <c r="K37" t="n">
         <v>373.6189558173199</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567934</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M37" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N37" t="n">
         <v>1365.793566308212</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P37" t="n">
         <v>1911.16945137598</v>
       </c>
       <c r="Q37" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R37" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S37" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T37" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V37" t="n">
         <v>1282.960265051241</v>
@@ -7135,10 +7135,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.193726196345</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C38" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995059</v>
       </c>
       <c r="E38" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872897</v>
+        <v>676.7913636872895</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922889</v>
+        <v>329.4856801922886</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K38" t="n">
-        <v>590.7154876889653</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.319643732763</v>
+        <v>1233.0925079263</v>
       </c>
       <c r="M38" t="n">
-        <v>2089.595997452654</v>
+        <v>2030.36886164619</v>
       </c>
       <c r="N38" t="n">
-        <v>2885.141118556685</v>
+        <v>2825.913982750221</v>
       </c>
       <c r="O38" t="n">
-        <v>3214.172000130763</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P38" t="n">
-        <v>3460.491244296798</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
         <v>3742.012625862513</v>
@@ -7205,7 +7205,7 @@
         <v>3600.244041813158</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V38" t="n">
         <v>3153.206593873103</v>
@@ -7257,19 +7257,19 @@
         <v>391.5406030065323</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3057309129963</v>
+        <v>1005.437672763421</v>
       </c>
       <c r="M39" t="n">
-        <v>945.625864192958</v>
+        <v>1700.9480544458</v>
       </c>
       <c r="N39" t="n">
-        <v>1275.488491856991</v>
+        <v>2030.810682109832</v>
       </c>
       <c r="O39" t="n">
-        <v>1787.096091516501</v>
+        <v>2310.350747328529</v>
       </c>
       <c r="P39" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q39" t="n">
         <v>2602.506130567962</v>
@@ -7312,52 +7312,52 @@
         <v>538.2767724147916</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424969</v>
+        <v>456.980224042497</v>
       </c>
       <c r="E40" t="n">
         <v>377.8872215001448</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422752</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021369</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567934</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N40" t="n">
         <v>1365.793566308212</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P40" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R40" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T40" t="n">
         <v>1689.133209963487</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C41" t="n">
         <v>1625.370946561769</v>
@@ -7397,64 +7397,64 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G41" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402928</v>
       </c>
       <c r="I41" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>177.4083093538499</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>379.9072094774265</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L41" t="n">
-        <v>1081.511365521224</v>
+        <v>1029.720198360742</v>
       </c>
       <c r="M41" t="n">
-        <v>1863.568522949378</v>
+        <v>1826.996552080633</v>
       </c>
       <c r="N41" t="n">
-        <v>2659.113644053409</v>
+        <v>2189.568218016799</v>
       </c>
       <c r="O41" t="n">
-        <v>3365.136705077605</v>
+        <v>2895.591279040995</v>
       </c>
       <c r="P41" t="n">
-        <v>3611.45594924364</v>
+        <v>3460.491244296798</v>
       </c>
       <c r="Q41" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R41" t="n">
         <v>3807.4858326055</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L42" t="n">
-        <v>900.1263155554491</v>
+        <v>1142.428132418869</v>
       </c>
       <c r="M42" t="n">
-        <v>1207.446448835411</v>
+        <v>1449.748265698831</v>
       </c>
       <c r="N42" t="n">
-        <v>1537.309076499444</v>
+        <v>1779.610893362863</v>
       </c>
       <c r="O42" t="n">
-        <v>1816.849141718141</v>
+        <v>2091.744220372739</v>
       </c>
       <c r="P42" t="n">
         <v>2296.766701154948</v>
@@ -7552,16 +7552,16 @@
         <v>456.9802240424967</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001447</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I43" t="n">
         <v>76.14971665211002</v>
@@ -7573,7 +7573,7 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567932</v>
       </c>
       <c r="M43" t="n">
         <v>1027.79888605232</v>
@@ -7594,13 +7594,13 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S43" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T43" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V43" t="n">
         <v>1282.960265051241</v>
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C44" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D44" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E44" t="n">
         <v>1018.957177436856</v>
@@ -7649,25 +7649,25 @@
         <v>177.4083093538499</v>
       </c>
       <c r="K44" t="n">
-        <v>379.9072094774265</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L44" t="n">
-        <v>1081.511365521224</v>
+        <v>1124.703627589838</v>
       </c>
       <c r="M44" t="n">
-        <v>1878.787719241115</v>
+        <v>1921.979981309728</v>
       </c>
       <c r="N44" t="n">
-        <v>2674.332840345146</v>
+        <v>2717.525102413759</v>
       </c>
       <c r="O44" t="n">
-        <v>3003.363721919224</v>
+        <v>3046.555983987837</v>
       </c>
       <c r="P44" t="n">
-        <v>3460.491244296798</v>
+        <v>3611.45594924364</v>
       </c>
       <c r="Q44" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R44" t="n">
         <v>3807.4858326055</v>
@@ -7679,19 +7679,19 @@
         <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W44" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X44" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>391.5406030065323</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3057309129963</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M45" t="n">
-        <v>945.625864192958</v>
+        <v>1226.399103845682</v>
       </c>
       <c r="N45" t="n">
-        <v>1275.488491856991</v>
+        <v>2030.810682109832</v>
       </c>
       <c r="O45" t="n">
-        <v>1787.096091516501</v>
+        <v>2310.350747328529</v>
       </c>
       <c r="P45" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q45" t="n">
         <v>2602.506130567962</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026574</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001445</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422752</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H46" t="n">
         <v>118.8642169901215</v>
@@ -7807,10 +7807,10 @@
         <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567932</v>
       </c>
       <c r="M46" t="n">
         <v>1027.79888605232</v>
@@ -7825,7 +7825,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
@@ -7837,7 +7837,7 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
@@ -7846,10 +7846,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963448</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928559</v>
+        <v>751.221238092856</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>263.6455160524019</v>
       </c>
       <c r="O3" t="n">
-        <v>242.086733546594</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.69000120934061</v>
+        <v>99.69000120934052</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.9880694127788</v>
+        <v>459.9880694127789</v>
       </c>
       <c r="N6" t="n">
-        <v>186.1149950186801</v>
+        <v>79.34038145194891</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.302674169118</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8696,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>280.5412144583769</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>268.3746053775284</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>288.4091825776751</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305272</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>280.5412144583769</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>43.34267162544862</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503168</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0.1242961376179039</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>340.3666041618745</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208063</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>15.83804904622843</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>349.6718322262463</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,16 +10598,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>43.62854754405367</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>43.84103958705631</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>246.6280670349171</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10905,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>196.2502891152629</v>
       </c>
       <c r="M41" t="n">
-        <v>434.1406079456237</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>137.1443495233393</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>212.9376547591301</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>156.2061697729165</v>
       </c>
       <c r="D13" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>135.3933113208578</v>
@@ -23434,7 +23434,7 @@
         <v>137.8731770418248</v>
       </c>
       <c r="I13" t="n">
-        <v>99.37859413856063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>21.38108535561904</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>158.768485068969</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X13" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>134.3803966972199</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H16" t="n">
         <v>137.8731770418248</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.84347119333589</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U16" t="n">
-        <v>275.196701072866</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>214.6690040633258</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>135.8716742520834</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729165</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>135.3933113208578</v>
@@ -23905,10 +23905,10 @@
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856062</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808142</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>30.43537018620941</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>67.15720800698028</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108797</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>74.06508482291892</v>
       </c>
       <c r="E22" t="n">
         <v>135.3933113208578</v>
@@ -24139,7 +24139,7 @@
         <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
         <v>137.8731770418247</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>106.8648221594023</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856059</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.41725759089479</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>190.1724142118445</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338494</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>154.5591946652604</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>133.8953512967694</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.27839330891702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710875.1462439944</v>
+        <v>710875.1462439945</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712892.675733266</v>
+        <v>712892.6757332658</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778544</v>
@@ -26320,37 +26320,37 @@
         <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>709537.8154665983</v>
+        <v>709537.8154665981</v>
       </c>
       <c r="F2" t="n">
-        <v>709537.8154665984</v>
+        <v>709537.8154665987</v>
       </c>
       <c r="G2" t="n">
-        <v>709537.8154665983</v>
+        <v>709537.8154665991</v>
       </c>
       <c r="H2" t="n">
-        <v>709537.815466598</v>
+        <v>709537.8154665985</v>
       </c>
       <c r="I2" t="n">
-        <v>709537.8154665974</v>
+        <v>709537.8154665979</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="K2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778561</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="M2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="N2" t="n">
         <v>738937.5928778555</v>
       </c>
-      <c r="N2" t="n">
-        <v>738937.5928778551</v>
-      </c>
       <c r="O2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="P2" t="n">
         <v>738937.5928778549</v>
@@ -26366,34 +26366,34 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>126749.0993655637</v>
+        <v>126749.0993655642</v>
       </c>
       <c r="D3" t="n">
-        <v>297200.235517499</v>
+        <v>297200.2355174986</v>
       </c>
       <c r="E3" t="n">
-        <v>521251.0006747247</v>
+        <v>521251.0006747246</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>11347.9477473117</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>29469.59349252018</v>
+        <v>29469.59349252034</v>
       </c>
       <c r="L3" t="n">
-        <v>126288.9629623013</v>
+        <v>126288.9629623012</v>
       </c>
       <c r="M3" t="n">
         <v>58540.52504815558</v>
@@ -26418,19 +26418,19 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>281053.6950278206</v>
+        <v>281053.6950278205</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>52680.79968367655</v>
+        <v>52680.79968367657</v>
       </c>
       <c r="F4" t="n">
         <v>52680.79968367655</v>
       </c>
       <c r="G4" t="n">
-        <v>52680.79968367655</v>
+        <v>52680.79968367658</v>
       </c>
       <c r="H4" t="n">
         <v>52680.79968367657</v>
@@ -26439,25 +26439,25 @@
         <v>47194.34598600485</v>
       </c>
       <c r="J4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448603</v>
+        <v>65980.208724486</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766782</v>
+        <v>99837.12979766785</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766779</v>
       </c>
       <c r="O4" t="n">
         <v>99837.12979766788</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766786</v>
+        <v>99837.12979766788</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>60291.99017029395</v>
+        <v>60291.99017029398</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26503,7 +26503,7 @@
         <v>81703.90096581174</v>
       </c>
       <c r="N5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="O5" t="n">
         <v>81703.90096581174</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244535.9034773493</v>
+        <v>244535.9034773497</v>
       </c>
       <c r="C6" t="n">
-        <v>270842.808314176</v>
+        <v>270842.8083141757</v>
       </c>
       <c r="D6" t="n">
-        <v>166671.6829045166</v>
+        <v>166671.6829045169</v>
       </c>
       <c r="E6" t="n">
-        <v>45285.09984402658</v>
+        <v>45203.43379566192</v>
       </c>
       <c r="F6" t="n">
-        <v>566536.1005187514</v>
+        <v>566454.4344703872</v>
       </c>
       <c r="G6" t="n">
-        <v>566536.1005187513</v>
+        <v>566454.4344703875</v>
       </c>
       <c r="H6" t="n">
-        <v>566536.1005187511</v>
+        <v>566454.4344703869</v>
       </c>
       <c r="I6" t="n">
-        <v>558080.0192682631</v>
+        <v>557998.353219899</v>
       </c>
       <c r="J6" t="n">
-        <v>496048.8652248544</v>
+        <v>495951.4060988824</v>
       </c>
       <c r="K6" t="n">
-        <v>538833.9666034739</v>
+        <v>538736.5074775012</v>
       </c>
       <c r="L6" t="n">
-        <v>448953.3153710433</v>
+        <v>448953.315371043</v>
       </c>
       <c r="M6" t="n">
-        <v>498856.0370662204</v>
+        <v>498856.0370662197</v>
       </c>
       <c r="N6" t="n">
-        <v>557396.5621143754</v>
+        <v>557396.5621143761</v>
       </c>
       <c r="O6" t="n">
-        <v>557396.5621143754</v>
+        <v>557396.5621143752</v>
       </c>
       <c r="P6" t="n">
         <v>557396.5621143754</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F2" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J2" t="n">
-        <v>4.069190974678381e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.490276446198582e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>133.5893551124166</v>
+        <v>133.5893551124169</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>390.6602340270275</v>
+        <v>390.6602340270279</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26823,7 +26823,7 @@
         <v>951.8714581513751</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513752</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="O4" t="n">
         <v>951.8714581513751</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>98.56809439329123</v>
+        <v>98.5680943932916</v>
       </c>
       <c r="D3" t="n">
-        <v>244.1543091046701</v>
+        <v>244.1543091046697</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>114.503720324672</v>
+        <v>114.5037203246724</v>
       </c>
       <c r="D4" t="n">
-        <v>283.6270387275281</v>
+        <v>283.6270387275277</v>
       </c>
       <c r="E4" t="n">
         <v>498.252238906132</v>
@@ -27036,10 +27036,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>114.503720324672</v>
+        <v>114.5037203246726</v>
       </c>
       <c r="L4" t="n">
-        <v>283.6270387275281</v>
+        <v>283.6270387275275</v>
       </c>
       <c r="M4" t="n">
         <v>234.910053803934</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>114.503720324672</v>
+        <v>114.5037203246724</v>
       </c>
       <c r="L4" t="n">
-        <v>283.6270387275281</v>
+        <v>283.6270387275277</v>
       </c>
       <c r="M4" t="n">
         <v>498.252238906132</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>241.8401813588544</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>243.5245195368227</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,25 +27458,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>108.7716316146257</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>176.8964746041424</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>138.217680340412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27594,7 +27594,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>285.2505066538582</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>16.21581171468398</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>24.10546085448982</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>333.9748142442293</v>
       </c>
       <c r="I5" t="n">
-        <v>150.2068468542645</v>
+        <v>189.7715534378573</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>116.1341136071583</v>
       </c>
       <c r="S5" t="n">
-        <v>196.7822105726808</v>
+        <v>196.7822105726807</v>
       </c>
       <c r="T5" t="n">
         <v>220.7449454354696</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3026894971471</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>137.0561740220254</v>
       </c>
       <c r="H6" t="n">
-        <v>109.4603144255763</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.50345891148612</v>
+        <v>79.50345891148609</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.3173538604604</v>
+        <v>82.31735386046034</v>
       </c>
       <c r="S6" t="n">
         <v>166.3458982840163</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9224779269495</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.3801195132049</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.44239272531931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>160.0853628467848</v>
       </c>
       <c r="I7" t="n">
-        <v>148.2059898991948</v>
+        <v>148.2059898991947</v>
       </c>
       <c r="J7" t="n">
-        <v>76.3276323345537</v>
+        <v>76.32763233455366</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.99005062971949</v>
+        <v>65.99005062971943</v>
       </c>
       <c r="R7" t="n">
-        <v>166.4617036659234</v>
+        <v>146.4715664301726</v>
       </c>
       <c r="S7" t="n">
-        <v>219.8183883033575</v>
+        <v>219.8183883033574</v>
       </c>
       <c r="T7" t="n">
         <v>226.9162943970875</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3058894199224</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>113.0884377667832</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>74.74425144011371</v>
+        <v>190.7830992058453</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>152.5663780463846</v>
+        <v>203.5992422935956</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571102</v>
       </c>
       <c r="V14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571124</v>
       </c>
       <c r="T17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571083</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="26">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296419</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964077</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964199</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964145</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964187</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964213</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5370426336177546</v>
+        <v>0.5370426336177562</v>
       </c>
       <c r="H5" t="n">
-        <v>5.499987871537831</v>
+        <v>5.499987871537846</v>
       </c>
       <c r="I5" t="n">
-        <v>20.70433613254851</v>
+        <v>20.70433613254856</v>
       </c>
       <c r="J5" t="n">
-        <v>45.58082222501495</v>
+        <v>45.58082222501507</v>
       </c>
       <c r="K5" t="n">
-        <v>68.31383690605452</v>
+        <v>68.3138369060547</v>
       </c>
       <c r="L5" t="n">
-        <v>84.74935540463389</v>
+        <v>84.74935540463413</v>
       </c>
       <c r="M5" t="n">
-        <v>94.29998734023363</v>
+        <v>94.29998734023388</v>
       </c>
       <c r="N5" t="n">
-        <v>95.82585972300008</v>
+        <v>95.82585972300035</v>
       </c>
       <c r="O5" t="n">
-        <v>90.48564203496353</v>
+        <v>90.48564203496377</v>
       </c>
       <c r="P5" t="n">
-        <v>77.22740201752519</v>
+        <v>77.22740201752541</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.99456270108934</v>
+        <v>57.9945627010895</v>
       </c>
       <c r="R5" t="n">
-        <v>33.73500433399131</v>
+        <v>33.73500433399141</v>
       </c>
       <c r="S5" t="n">
-        <v>12.2378590135646</v>
+        <v>12.23785901356463</v>
       </c>
       <c r="T5" t="n">
-        <v>2.350904128661722</v>
+        <v>2.350904128661729</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04296341068942036</v>
+        <v>0.04296341068942048</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2873431411851979</v>
+        <v>0.2873431411851987</v>
       </c>
       <c r="H6" t="n">
-        <v>2.775129810920201</v>
+        <v>2.775129810920209</v>
       </c>
       <c r="I6" t="n">
-        <v>9.893173939928964</v>
+        <v>9.893173939928992</v>
       </c>
       <c r="J6" t="n">
-        <v>27.14762545732609</v>
+        <v>27.14762545732617</v>
       </c>
       <c r="K6" t="n">
-        <v>46.39961591673435</v>
+        <v>46.39961591673448</v>
       </c>
       <c r="L6" t="n">
-        <v>62.39000966830361</v>
+        <v>62.39000966830378</v>
       </c>
       <c r="M6" t="n">
-        <v>72.80619853626702</v>
+        <v>72.80619853626722</v>
       </c>
       <c r="N6" t="n">
-        <v>74.73316196991689</v>
+        <v>74.73316196991711</v>
       </c>
       <c r="O6" t="n">
-        <v>68.36624289418171</v>
+        <v>68.36624289418191</v>
       </c>
       <c r="P6" t="n">
-        <v>54.86993719702258</v>
+        <v>54.86993719702273</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.67909991690351</v>
+        <v>36.67909991690362</v>
       </c>
       <c r="R6" t="n">
-        <v>17.84048029218273</v>
+        <v>17.84048029218278</v>
       </c>
       <c r="S6" t="n">
-        <v>5.337272819821545</v>
+        <v>5.33727281982156</v>
       </c>
       <c r="T6" t="n">
-        <v>1.158194503285951</v>
+        <v>1.158194503285954</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01890415402534197</v>
+        <v>0.01890415402534203</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2408988370879643</v>
+        <v>0.2408988370879649</v>
       </c>
       <c r="H7" t="n">
-        <v>2.141809660654811</v>
+        <v>2.141809660654817</v>
       </c>
       <c r="I7" t="n">
-        <v>7.24448502806351</v>
+        <v>7.24448502806353</v>
       </c>
       <c r="J7" t="n">
-        <v>17.03154778211907</v>
+        <v>17.03154778211912</v>
       </c>
       <c r="K7" t="n">
-        <v>27.9880648907653</v>
+        <v>27.98806489076538</v>
       </c>
       <c r="L7" t="n">
-        <v>35.81508710669608</v>
+        <v>35.81508710669618</v>
       </c>
       <c r="M7" t="n">
-        <v>37.76198770825243</v>
+        <v>37.76198770825253</v>
       </c>
       <c r="N7" t="n">
-        <v>36.86409204274278</v>
+        <v>36.86409204274288</v>
       </c>
       <c r="O7" t="n">
-        <v>34.04995562766972</v>
+        <v>34.04995562766982</v>
       </c>
       <c r="P7" t="n">
-        <v>29.13561935107523</v>
+        <v>29.13561935107531</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.1719926219749</v>
+        <v>20.17199262197496</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8316877112461</v>
+        <v>10.83168771124613</v>
       </c>
       <c r="S7" t="n">
-        <v>4.198209733614794</v>
+        <v>4.198209733614806</v>
       </c>
       <c r="T7" t="n">
-        <v>1.029295031194029</v>
+        <v>1.029295031194032</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01313993656843443</v>
+        <v>0.01313993656843447</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34781,16 +34781,16 @@
         <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="O3" t="n">
-        <v>117.4131148590401</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>33.63153287040243</v>
+        <v>33.63153287040255</v>
       </c>
       <c r="K5" t="n">
-        <v>172.3693984322387</v>
+        <v>172.3693984322389</v>
       </c>
       <c r="L5" t="n">
-        <v>266.6441549850971</v>
+        <v>266.6441549850973</v>
       </c>
       <c r="M5" t="n">
-        <v>313.4672876057934</v>
+        <v>313.4672876057937</v>
       </c>
       <c r="N5" t="n">
-        <v>303.7597205383933</v>
+        <v>303.7597205383936</v>
       </c>
       <c r="O5" t="n">
-        <v>241.1876118760222</v>
+        <v>241.1876118760224</v>
       </c>
       <c r="P5" t="n">
-        <v>167.7931144337383</v>
+        <v>167.7931144337385</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.00386348654454</v>
+        <v>48.0038634865447</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.023413954954</v>
+        <v>173.0234139549541</v>
       </c>
       <c r="L6" t="n">
-        <v>294.6759751918886</v>
+        <v>294.6759751918888</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6602340270275</v>
+        <v>390.6602340270279</v>
       </c>
       <c r="N6" t="n">
-        <v>129.5064449052637</v>
+        <v>22.73183133853272</v>
       </c>
       <c r="O6" t="n">
-        <v>319.6323177264668</v>
+        <v>319.632317726467</v>
       </c>
       <c r="P6" t="n">
-        <v>239.3582984226295</v>
+        <v>239.3582984226296</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>106.7746135667312</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.718573064882445</v>
+        <v>5.718573064882523</v>
       </c>
       <c r="L7" t="n">
-        <v>63.40511236701222</v>
+        <v>63.40511236701231</v>
       </c>
       <c r="M7" t="n">
-        <v>77.34586467009302</v>
+        <v>77.34586467009312</v>
       </c>
       <c r="N7" t="n">
-        <v>80.99626442197138</v>
+        <v>80.99626442197147</v>
       </c>
       <c r="O7" t="n">
-        <v>58.6350835417094</v>
+        <v>58.6350835417095</v>
       </c>
       <c r="P7" t="n">
-        <v>26.41417861596872</v>
+        <v>26.4141786159688</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>636.3573311876561</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>634.6086113736561</v>
       </c>
       <c r="O11" t="n">
         <v>713.1546070951472</v>
@@ -35492,13 +35492,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336994</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>621.603755975688</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
@@ -35586,7 +35586,7 @@
         <v>189.4242519375121</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.26635129758611</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>189.4242519375121</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.26635129758611</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>636.3573311876561</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>181.5272651157488</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35963,7 +35963,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,13 +35972,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>621.603755975688</v>
       </c>
       <c r="O18" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K19" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
         <v>261.2548382056399</v>
@@ -36057,10 +36057,10 @@
         <v>247.2780028463143</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758611</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>102.4057029070521</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>696.1827208911537</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768306</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>481.9867828282169</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758614</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>560.0354988619143</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,10 +36759,10 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,10 +36923,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36996,10 +36996,10 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187482</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221117</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>326.2624260966948</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2814067694342</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>640.7016843867031</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37318,16 +37318,16 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>375.9829733764555</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q35" t="n">
         <v>138.1845934903002</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,7 +37391,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K38" t="n">
-        <v>248.3853831462246</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>537.6579191953739</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>702.5357390731099</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2814067694342</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>204.5443435591683</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>487.2801412757196</v>
       </c>
       <c r="M41" t="n">
-        <v>789.9567246749029</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1845934903002</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37871,10 +37871,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>315.2861888988639</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,10 +38017,10 @@
         <v>102.2814067694342</v>
       </c>
       <c r="K44" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>428.174201683796</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38032,13 +38032,13 @@
         <v>332.3544258324018</v>
       </c>
       <c r="P44" t="n">
-        <v>461.7449720985598</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
